--- a/forms/geocoding/geocoding.xlsx
+++ b/forms/geocoding/geocoding.xlsx
@@ -586,7 +586,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>Geocoding</t>
+    <t>bohemia_geocoding</t>
   </si>
   <si>
     <t>geocoding</t>
@@ -969,13 +969,13 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Ubuntu Mono"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1031,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1165,10 +1165,13 @@
     <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2898,13 +2901,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="45" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>192</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2913,7 +2916,7 @@
       <c r="E2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="47">
         <v>2.020100501E9</v>
       </c>
     </row>
@@ -6988,7 +6991,7 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -7413,7 +7416,7 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="49" t="s">
         <v>214</v>
       </c>
       <c r="M14" s="15" t="s">
@@ -7464,7 +7467,7 @@
       <c r="B18" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="50" t="s">
         <v>219</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -7494,7 +7497,7 @@
       <c r="B19" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>224</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -7524,7 +7527,7 @@
       <c r="B20" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="50" t="s">
         <v>229</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -7554,7 +7557,7 @@
       <c r="B21" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>233</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -7584,7 +7587,7 @@
       <c r="B22" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -7614,7 +7617,7 @@
       <c r="B23" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>243</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -7644,20 +7647,20 @@
       <c r="B24" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="50" t="s">
         <v>247</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="51" t="s">
         <v>249</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="5"/>
       <c r="H24" s="21"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="52" t="s">
         <v>250</v>
       </c>
       <c r="K24" s="18"/>
@@ -7676,7 +7679,7 @@
       <c r="B25" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="50" t="s">
         <v>253</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -7691,11 +7694,11 @@
       <c r="G25" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="51" t="s">
         <v>258</v>
       </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="52" t="s">
         <v>259</v>
       </c>
       <c r="K25" s="18"/>
@@ -7727,7 +7730,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="52" t="s">
         <v>261</v>
       </c>
       <c r="K26" s="18"/>
@@ -7746,7 +7749,7 @@
       <c r="B27" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>264</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -7765,7 +7768,7 @@
         <v>267</v>
       </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="52" t="s">
         <v>268</v>
       </c>
       <c r="K27" s="18"/>
@@ -7797,7 +7800,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="52" t="s">
         <v>270</v>
       </c>
       <c r="K28" s="18"/>
@@ -7816,26 +7819,26 @@
       <c r="B29" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="55" t="s">
         <v>278</v>
       </c>
       <c r="I29" s="18"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -7865,7 +7868,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="52" t="s">
         <v>280</v>
       </c>
       <c r="K30" s="18"/>
@@ -7884,26 +7887,26 @@
       <c r="B31" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="55" t="s">
         <v>286</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="55"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="5"/>
@@ -7933,7 +7936,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="52" t="s">
         <v>288</v>
       </c>
       <c r="K32" s="18"/>
@@ -7952,7 +7955,7 @@
       <c r="B33" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="53" t="s">
         <v>291</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -7982,7 +7985,7 @@
       <c r="B34" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="54" t="s">
         <v>296</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -8008,7 +8011,7 @@
     <row r="35">
       <c r="A35" s="21"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="53"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
@@ -8028,7 +8031,7 @@
     <row r="36">
       <c r="A36" s="21"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="5"/>
@@ -8088,7 +8091,7 @@
     <row r="39">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="56"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="5"/>
@@ -8135,7 +8138,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="21"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -8148,7 +8151,7 @@
     <row r="42">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="56"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="5"/>
@@ -8195,7 +8198,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="21"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="57"/>
+      <c r="J44" s="58"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
